--- a/03.指标管理/大宗/指标v1.0.4.xlsx
+++ b/03.指标管理/大宗/指标v1.0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类指标" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1375">
   <si>
     <t>机构数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7668,6 +7668,10 @@
   <si>
     <t>√</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8911,11 +8915,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AE20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF44" sqref="AF44"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12844,8 +12848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12909,6 +12913,9 @@
       </c>
       <c r="O2" t="s">
         <v>172</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -14660,8 +14667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="C28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
